--- a/seed/coa.xlsx
+++ b/seed/coa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Go\coa-account\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BA9CF7-99CF-40BE-A310-E36DBD46ACFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A50CE4-C1FF-4279-985D-D6C8B814E6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6B0E4761-02CD-4100-B8A9-8A882AE40E8C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
   <si>
     <t>KODE</t>
   </si>
@@ -295,6 +295,63 @@
   </si>
   <si>
     <t>LEVEL</t>
+  </si>
+  <si>
+    <t>Timun</t>
+  </si>
+  <si>
+    <t>Tomat besar</t>
+  </si>
+  <si>
+    <t>Singkong</t>
+  </si>
+  <si>
+    <t>Kentang</t>
+  </si>
+  <si>
+    <t>Kedelai</t>
+  </si>
+  <si>
+    <t>Wortel</t>
+  </si>
+  <si>
+    <t>Bayam</t>
+  </si>
+  <si>
+    <t>Tomat</t>
+  </si>
+  <si>
+    <t>Cabai</t>
+  </si>
+  <si>
+    <t>Tebu</t>
+  </si>
+  <si>
+    <t>Kako</t>
+  </si>
+  <si>
+    <t>Ayam</t>
+  </si>
+  <si>
+    <t>Sapi</t>
+  </si>
+  <si>
+    <t>Domba</t>
+  </si>
+  <si>
+    <t>Gula</t>
+  </si>
+  <si>
+    <t>Tepung</t>
+  </si>
+  <si>
+    <t>Minyak</t>
+  </si>
+  <si>
+    <t>Cengkeh</t>
+  </si>
+  <si>
+    <t>Kapulaga</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB9028C-CE73-4170-836D-9596EE9601D6}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,357 +1498,375 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>115000</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>35</v>
+      <c r="A32" s="8">
+        <v>114501</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>116000</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>36</v>
+      <c r="A33" s="8">
+        <v>114502</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D33" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
-        <v>116999</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>114503</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D34" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>117000</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>38</v>
+      <c r="A35" s="8">
+        <v>114504</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D35" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
-        <v>117999</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>40</v>
+        <v>114505</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D36" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>118000</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>41</v>
+      <c r="A37" s="8">
+        <v>114506</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D37" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
-        <v>118999</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>114507</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D38" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>120000</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="5"/>
+      <c r="A39" s="8">
+        <v>114508</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D39" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>121000</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>45</v>
+      <c r="A40" s="8">
+        <v>114509</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D40" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <v>129999</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>47</v>
+        <v>114510</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D41" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>200000</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="2"/>
+      <c r="A42" s="8">
+        <v>114511</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D42" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>210000</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="5"/>
+      <c r="A43" s="8">
+        <v>114512</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D43" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>211000</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>51</v>
+      <c r="A44" s="8">
+        <v>114513</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D44" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
-        <v>212000</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>53</v>
+        <v>114514</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D45" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>212000</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="5"/>
+      <c r="A46" s="8">
+        <v>114515</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D46" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>220000</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="5"/>
+      <c r="A47" s="8">
+        <v>114516</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D47" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>221000</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="5"/>
+      <c r="A48" s="8">
+        <v>114517</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D48" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>230000</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>114518</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D49" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>231000</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>58</v>
+      <c r="A50" s="8">
+        <v>114519</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D50" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>115000</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="22">
         <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="22">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <v>310000</v>
+        <v>116000</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D52" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>320000</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>63</v>
+      <c r="A53" s="8">
+        <v>116999</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D53" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <v>330000</v>
+        <v>117000</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D54" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
-        <v>340000</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>65</v>
+      <c r="A55" s="8">
+        <v>117999</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D55" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <v>350000</v>
+        <v>118000</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D56" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>400000</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="18"/>
+      <c r="A57" s="8">
+        <v>118999</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D57" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
-        <v>410000</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>69</v>
+      <c r="A58" s="3">
+        <v>120000</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="22">
@@ -1800,174 +1875,423 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>411000</v>
+        <v>121000</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D59" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
-        <v>412000</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="5"/>
+      <c r="A60" s="8">
+        <v>129999</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D60" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="19">
-        <v>500000</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="5"/>
+      <c r="A61" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
-        <v>510000</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="A62" s="3">
+        <v>210000</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
-        <v>520000</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>74</v>
+      <c r="A63" s="6">
+        <v>211000</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D63" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
-        <v>530000</v>
+        <v>212000</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D64" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
-        <v>540000</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A65" s="6">
+        <v>212000</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
-        <v>550000</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A66" s="3">
+        <v>220000</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="5"/>
       <c r="D66" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
-        <v>560000</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A67" s="6">
+        <v>221000</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="5"/>
       <c r="D67" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
+        <v>230000</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>231000</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>310000</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>320000</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>330000</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>340000</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>350000</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="16">
+        <v>400000</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>410000</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>411000</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>412000</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="19">
+        <v>500000</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>510000</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>520000</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>530000</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>540000</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>550000</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>560000</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
         <v>570000</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D87" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
         <v>580000</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D88" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
         <v>590000</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D89" s="22">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C41 C43:C70" xr:uid="{A34E1A68-4080-465D-B530-D9FB47C16912}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62:C89 C3:C60" xr:uid="{A34E1A68-4080-465D-B530-D9FB47C16912}">
       <formula1>type</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>